--- a/regionseng/7/justice statistics/justice statistics.xlsx
+++ b/regionseng/7/justice statistics/justice statistics.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5323920-41CE-4AB8-ABFF-2C1C01DBE10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10335"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="2008-2020" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="24">
   <si>
     <t>-</t>
   </si>
@@ -89,9 +88,6 @@
     <t>more then 44</t>
   </si>
   <si>
-    <t>less then 18</t>
-  </si>
-  <si>
     <t>18-24</t>
   </si>
   <si>
@@ -102,14 +98,21 @@
   </si>
   <si>
     <t>The data on the victims and perpetrators of the domestic violence by age in Racha-Lechkhumi and Kvemo Svaneti Region</t>
+  </si>
+  <si>
+    <t>less then 13</t>
+  </si>
+  <si>
+    <t>14-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="#\ ###"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -309,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -421,29 +424,68 @@
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,23 +580,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -590,23 +615,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -782,48 +790,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDD422F-8CCF-4051-90D4-D1D78785BA0C}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40" style="4" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="15.7109375" style="4" customWidth="1"/>
+    <col min="2" max="7" width="12.7109375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="43">
+      <c r="B5" s="49">
         <v>2021</v>
       </c>
-      <c r="C5" s="44"/>
-    </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="50"/>
+      <c r="D5" s="51">
+        <v>2022</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="51">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
         <v>10</v>
@@ -831,39 +852,91 @@
       <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="61">
         <v>24</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="61">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="D7" s="57">
+        <v>17</v>
+      </c>
+      <c r="E7" s="62">
+        <v>20</v>
+      </c>
+      <c r="F7" s="62">
+        <v>26</v>
+      </c>
+      <c r="G7" s="57">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="58">
+        <v>2</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>19</v>
       </c>
       <c r="B10" s="41">
         <v>3</v>
@@ -871,9 +944,21 @@
       <c r="C10" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="D10" s="58">
+        <v>2</v>
+      </c>
+      <c r="E10" s="58">
+        <v>2</v>
+      </c>
+      <c r="F10" s="58">
+        <v>1</v>
+      </c>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="41">
@@ -882,10 +967,22 @@
       <c r="C11" s="41">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>20</v>
+      <c r="D11" s="63">
+        <v>7</v>
+      </c>
+      <c r="E11" s="58">
+        <v>9</v>
+      </c>
+      <c r="F11" s="58">
+        <v>8</v>
+      </c>
+      <c r="G11" s="58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="41">
         <v>8</v>
@@ -893,10 +990,22 @@
       <c r="C12" s="41">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>21</v>
+      <c r="D12" s="63">
+        <v>5</v>
+      </c>
+      <c r="E12" s="58">
+        <v>4</v>
+      </c>
+      <c r="F12" s="58">
+        <v>11</v>
+      </c>
+      <c r="G12" s="58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="41">
         <v>3</v>
@@ -904,9 +1013,21 @@
       <c r="C13" s="41">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="D13" s="63">
+        <v>3</v>
+      </c>
+      <c r="E13" s="58">
+        <v>3</v>
+      </c>
+      <c r="F13" s="58">
+        <v>6</v>
+      </c>
+      <c r="G13" s="58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -915,16 +1036,34 @@
       <c r="C14" s="42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="D14" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -932,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -940,14 +1079,14 @@
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40" style="4" customWidth="1"/>
-    <col min="2" max="27" width="10.6640625" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="4"/>
+    <col min="2" max="27" width="10.7109375" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -972,7 +1111,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -995,7 +1134,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1020,7 +1159,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1045,62 +1184,62 @@
       <c r="T4" s="10"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
-      <c r="B5" s="47">
+      <c r="B5" s="51">
         <v>2008</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51">
         <v>2009</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47">
+      <c r="E5" s="51"/>
+      <c r="F5" s="51">
         <v>2010</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="45">
+      <c r="I5" s="56"/>
+      <c r="J5" s="55">
         <v>2012</v>
       </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="45">
+      <c r="K5" s="56"/>
+      <c r="L5" s="55">
         <v>2013</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="45">
+      <c r="M5" s="56"/>
+      <c r="N5" s="55">
         <v>2014</v>
       </c>
-      <c r="O5" s="46"/>
-      <c r="P5" s="45">
+      <c r="O5" s="56"/>
+      <c r="P5" s="55">
         <v>2015</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="45">
+      <c r="Q5" s="56"/>
+      <c r="R5" s="55">
         <v>2016</v>
       </c>
-      <c r="S5" s="46"/>
-      <c r="T5" s="47">
+      <c r="S5" s="56"/>
+      <c r="T5" s="51">
         <v>2017</v>
       </c>
-      <c r="U5" s="48"/>
-      <c r="V5" s="47">
+      <c r="U5" s="52"/>
+      <c r="V5" s="51">
         <v>2018</v>
       </c>
-      <c r="W5" s="48"/>
-      <c r="X5" s="47">
+      <c r="W5" s="52"/>
+      <c r="X5" s="51">
         <v>2019</v>
       </c>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="43">
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="49">
         <v>2020</v>
       </c>
-      <c r="AA5" s="44"/>
-    </row>
-    <row r="6" spans="1:27" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA5" s="50"/>
+    </row>
+    <row r="6" spans="1:27" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
         <v>10</v>
@@ -1181,7 +1320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1434,7 @@
       <c r="Z8" s="40"/>
       <c r="AA8" s="40"/>
     </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>1</v>
       </c>
@@ -1461,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
@@ -1627,7 +1766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
@@ -1710,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1874,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1899,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
